--- a/backend/docs/test80.xlsx
+++ b/backend/docs/test80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-25 / 29</t>
+    <t>Акт № 14-25 / 30</t>
   </si>
   <si>
     <t>о списании материальных запасов на увеличение балансовой стоимости основного средства.</t>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>777777</t>
   </si>
   <si>
     <t xml:space="preserve">были установлены в основное средство: </t>
@@ -520,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="P9" sqref="P9"/>
@@ -735,156 +738,198 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="22" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>4</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4"/>
       <c r="G37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="54">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -909,18 +954,20 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A30:I30"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="B33:C33"/>
@@ -933,6 +980,10 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test80.xlsx
+++ b/backend/docs/test80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-25 / 30</t>
+    <t>Акт № 14-25 / 34</t>
   </si>
   <si>
     <t>о списании материальных запасов на увеличение балансовой стоимости основного средства.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Олейников В.Ф.</t>
+    <t>Денисенко А.Г.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -79,31 +79,28 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>6767567</t>
+    <t>asdasd</t>
   </si>
   <si>
     <t>шт</t>
   </si>
   <si>
+    <t>3123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">были установлены в основное средство: </t>
+  </si>
+  <si>
+    <t>Единицы измерения</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>777777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">были установлены в основное средство: </t>
-  </si>
-  <si>
-    <t>Единицы измерения</t>
-  </si>
-  <si>
     <t>Принтер Canon Test Cannon1</t>
   </si>
   <si>
-    <t>24234324</t>
+    <t>asd1313</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -523,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="P9" sqref="P9"/>
@@ -713,8 +710,8 @@
         <v>22</v>
       </c>
       <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
-        <v>23</v>
+      <c r="I20" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,209 +724,167 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>3</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
+      <c r="I21" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="48">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -954,20 +909,18 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="B33:C33"/>
@@ -980,10 +933,6 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test80.xlsx
+++ b/backend/docs/test80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-25 / 34</t>
+    <t>Акт № 14-25 / 35</t>
   </si>
   <si>
     <t>о списании материальных запасов на увеличение балансовой стоимости основного средства.</t>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>шт</t>
+  </si>
+  <si>
+    <t>6767567</t>
   </si>
   <si>
     <t>3123123</t>
@@ -520,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="P9" sqref="P9"/>
@@ -732,86 +735,97 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
@@ -819,17 +833,17 @@
       </c>
       <c r="C31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H32" s="4"/>
     </row>
@@ -839,17 +853,17 @@
       </c>
       <c r="C33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H34" s="4"/>
     </row>
@@ -859,17 +873,17 @@
       </c>
       <c r="C35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H36" s="4"/>
     </row>
@@ -879,12 +893,22 @@
       </c>
       <c r="C37" s="4"/>
       <c r="G37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="51">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -909,16 +933,17 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:I25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:C32"/>
@@ -933,6 +958,8 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
